--- a/react-exceljs-sample-v1/public/sv-starter-pokemons.v1.xlsx
+++ b/react-exceljs-sample-v1/public/sv-starter-pokemons.v1.xlsx
@@ -5,17 +5,32 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ciro/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ciro/Desktop/WEBs/React/react-exceljs-example/react-exceljs-sample-v1/public/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{649468F4-020A-7A48-B2FE-279946339477}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DAA2F39C-229F-204D-ACB2-356BD17F54AF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="500" windowWidth="28300" windowHeight="15800" xr2:uid="{B79372A0-D25D-A24A-8064-5DA5896C7FD3}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <definedNames>
+    <definedName name="FireAvility">Sheet1!$D$4</definedName>
+    <definedName name="FireFinally">Sheet1!$D$5</definedName>
+    <definedName name="FireName">Sheet1!$D$2</definedName>
+    <definedName name="FireType">Sheet1!$D$3</definedName>
+    <definedName name="GrassAvility">Sheet1!$B$4</definedName>
+    <definedName name="GrassFinally">Sheet1!$B$5</definedName>
+    <definedName name="GrassName">Sheet1!$B$2</definedName>
+    <definedName name="GrassType">Sheet1!$B$3</definedName>
+    <definedName name="title">Sheet1!$A$1</definedName>
+    <definedName name="WaterAvility">Sheet1!$C$4</definedName>
+    <definedName name="WaterFinally">Sheet1!$C$5</definedName>
+    <definedName name="WaterName">Sheet1!$C$2</definedName>
+    <definedName name="WaterType">Sheet1!$C$3</definedName>
+  </definedNames>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -36,7 +51,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
   <si>
     <t>ホゲータ</t>
     <phoneticPr fontId="2"/>
@@ -82,39 +97,69 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>def-Sprigatito-type</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>def-Feucoco-type</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>def-Quaxly-type</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>def-Sprigatito-avility</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>def-Quaxly-avility</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>def-Feucoco-avility</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>def-Sprigatito-finaly</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>def-Quaxly-finaly</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>def-Feucoco-finaly</t>
+    <t>草タイプ</t>
+    <rPh sb="0" eb="1">
+      <t xml:space="preserve">クサタイプ </t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>水タイプ</t>
+    <rPh sb="0" eb="1">
+      <t xml:space="preserve">ミズタイプ </t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>炎タイプ</t>
+    <rPh sb="0" eb="1">
+      <t xml:space="preserve">ホノオタイプ </t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>草</t>
+    <rPh sb="0" eb="1">
+      <t xml:space="preserve">クサ </t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>水</t>
+    <rPh sb="0" eb="1">
+      <t xml:space="preserve">ミズ </t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>炎</t>
+    <rPh sb="0" eb="1">
+      <t xml:space="preserve">ホノオ </t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>しんりょく</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>げきりゅう</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>もうか</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>マスカーニャ</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ウェーニバル</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ラウドボーン</t>
     <phoneticPr fontId="2"/>
   </si>
 </sst>
@@ -528,7 +573,7 @@
   <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+      <selection activeCell="A4" sqref="A4:XFD4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
@@ -540,6 +585,15 @@
       <c r="A1" t="s">
         <v>7</v>
       </c>
+      <c r="B1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D1" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="3" t="s">
@@ -560,13 +614,13 @@
         <v>3</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -574,13 +628,13 @@
         <v>4</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -588,13 +642,13 @@
         <v>5</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
     </row>
   </sheetData>
